--- a/data/trans_dic/P15-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P15-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,9%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>4,11; 6,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>6,27; 10,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>4,67; 7,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>5,04; 8,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>4,68; 7,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>7,06; 9,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>5,87; 9,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>8,87; 12,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>4,84; 6,87</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>7,1; 9,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>5,63; 8,16</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>7,76; 10,13</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,53%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>7,29; 10,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>8,25; 10,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>4,92; 6,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>5,15; 7,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>3,68; 5,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>5,47; 7,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,44; 5,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>3,91; 6,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,86; 7,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,2; 8,95</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>4,42; 5,84</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>4,76; 6,36</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,89%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>5,42; 9,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>3,66; 7,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>3,95; 7,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>3,53; 7,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>3,3; 7,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>3,93; 8,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>3,83; 8,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,44; 6,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>4,96; 7,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>4,38; 7,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>4,22; 7,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>3,86; 6,25</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,05%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,57; 8,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,46; 9,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,13; 6,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,17; 7,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,49; 6,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,35; 8,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,67; 6,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>5,3; 6,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,66; 6,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>7,21; 8,49</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,07; 6,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>5,46; 6,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P15-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>9,06%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,83</t>
+          <t>5,18; 9,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,87; 12,13</t>
+          <t>9,03; 12,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,76; 10,13</t>
+          <t>7,89; 10,35</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,12%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,15; 7,52</t>
+          <t>3,96; 6,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 6,01</t>
+          <t>3,16; 5,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,76; 6,36</t>
+          <t>4,06; 6,06</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>4,9%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,53; 7,54</t>
+          <t>3,53; 7,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,44; 6,16</t>
+          <t>3,45; 6,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 6,25</t>
+          <t>3,86; 6,41</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>5,79%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,17; 7,06</t>
+          <t>4,41; 6,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 6,84</t>
+          <t>4,74; 6,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,46; 6,67</t>
+          <t>5,0; 6,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P15-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,11; 6,86</t>
+          <t>4,29; 7,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,27; 10,0</t>
+          <t>6,39; 9,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,67; 7,82</t>
+          <t>4,71; 7,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,18; 9,18</t>
+          <t>5,23; 9,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,68; 7,5</t>
+          <t>4,74; 7,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,06; 9,91</t>
+          <t>6,97; 10,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,87; 9,57</t>
+          <t>5,72; 9,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,03; 12,32</t>
+          <t>8,88; 12,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,84; 6,87</t>
+          <t>4,87; 6,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,1; 9,36</t>
+          <t>7,11; 9,4</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,63; 8,16</t>
+          <t>5,63; 8,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,89; 10,35</t>
+          <t>7,87; 10,37</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,29; 10,05</t>
+          <t>7,21; 9,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,25; 10,7</t>
+          <t>8,12; 10,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,92; 6,87</t>
+          <t>4,9; 6,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 6,98</t>
+          <t>3,9; 7,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,68; 5,75</t>
+          <t>3,64; 5,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,47; 7,76</t>
+          <t>5,45; 7,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,44; 5,3</t>
+          <t>3,44; 5,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,16; 5,64</t>
+          <t>3,22; 5,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,86; 7,62</t>
+          <t>5,8; 7,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,2; 8,95</t>
+          <t>7,19; 8,95</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 5,84</t>
+          <t>4,38; 5,82</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,06; 6,06</t>
+          <t>4,16; 6,01</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,42; 9,96</t>
+          <t>5,34; 10,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,66; 7,79</t>
+          <t>3,74; 7,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 7,95</t>
+          <t>3,84; 8,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,53; 7,75</t>
+          <t>3,49; 7,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 7,31</t>
+          <t>3,08; 7,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 8,93</t>
+          <t>4,09; 9,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,83; 8,06</t>
+          <t>3,86; 7,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,45; 6,1</t>
+          <t>3,43; 6,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,96; 7,98</t>
+          <t>4,91; 7,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,38; 7,76</t>
+          <t>4,51; 7,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,22; 7,18</t>
+          <t>4,33; 7,25</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 6,41</t>
+          <t>3,86; 6,24</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,57; 8,42</t>
+          <t>6,51; 8,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,46; 9,42</t>
+          <t>7,48; 9,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,13; 6,75</t>
+          <t>5,07; 6,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,41; 6,75</t>
+          <t>4,51; 6,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,49; 6,02</t>
+          <t>4,47; 6,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,35; 8,08</t>
+          <t>6,4; 8,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,67; 6,32</t>
+          <t>4,65; 6,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,74; 6,65</t>
+          <t>4,76; 6,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,66; 6,94</t>
+          <t>5,69; 6,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,21; 8,49</t>
+          <t>7,19; 8,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,07; 6,23</t>
+          <t>5,11; 6,26</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,0; 6,55</t>
+          <t>5,04; 6,48</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>56332</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>76740</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>45703</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>35606</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>79549</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>112937</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>74602</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>79554</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>135881</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>189677</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>120305</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>115160</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>44246; 73525</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>62314; 97233</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>35519; 60203</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>26924; 47577</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>62275; 96441</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>93283; 134098</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>56915; 94899</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>67066; 93662</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>114353; 159281</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>164501; 217435</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>98435; 141593</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>99938; 131727</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>145631</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>184225</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>121179</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>130042</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>72473</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>115761</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>85845</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>101957</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>218104</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>299985</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>207024</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>231999</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>122093; 168577</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>159502; 215843</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>101789; 144417</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>89279; 161290</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>57781; 92048</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>95845; 137272</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>68335; 104860</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>71960; 124239</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>190405; 248786</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>267418; 333199</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>177975; 236559</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>188556; 272139</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>41093</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>26054</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>30796</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>33226</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>23368</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>28775</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>31007</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>30866</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>64462</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>54829</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>61803</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>64092</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>29428; 56027</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17974; 37462</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>21023; 44211</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>22548; 48930</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14696; 34153</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18746; 42585</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21199; 42838</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>22670; 40291</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>50474; 81982</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>42423; 73152</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>47486; 79438</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>50461; 81609</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>243056</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>287019</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>197679</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>198874</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>175391</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>257472</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>191453</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>212377</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>418447</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>544491</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>389132</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>411252</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>213412; 272920</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>255706; 320934</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>171078; 228763</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>155673; 234796</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>151081; 206321</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>227345; 288260</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>164248; 225432</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>173967; 245320</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>379017; 461354</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>501766; 591069</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>352827; 432517</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>357869; 460265</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>